--- a/zip.xlsx
+++ b/zip.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/96cba6bbde57eda7/Documents/GitHub/MidTermProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{854DCA86-B191-41CF-A686-8AFE63B0A9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{854DCA86-B191-41CF-A686-8AFE63B0A9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD1834BF-620F-432E-8C00-9BDC7825F71E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F99AE724-4C1D-49FD-A19C-5A7C0B3FAB51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$71</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="29">
   <si>
     <t>Zipcode</t>
   </si>
@@ -171,7 +174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -179,11 +182,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -195,6 +260,33 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -511,19 +603,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B15501-F8E4-4561-A089-E21E532FD56A}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -536,436 +629,607 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
+        <v>28</v>
+      </c>
+      <c r="B2" s="4">
+        <v>98001</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <f>COUNTIF($C$2:$C$71,F2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2">
+        <v>98002</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G25" si="0">COUNTIF($C$2:$C$71,F3)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>98003</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>98178</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>40</v>
+      </c>
+      <c r="B5" s="4">
+        <v>98004</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>41</v>
+      </c>
+      <c r="B6" s="7">
+        <v>98005</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>57</v>
+      </c>
+      <c r="B7" s="11">
+        <v>98006</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>11</v>
+      </c>
+      <c r="B8" s="11">
+        <v>98007</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>36</v>
+      </c>
+      <c r="B9" s="9">
+        <v>98008</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>45</v>
+      </c>
+      <c r="B10" s="11">
+        <v>98010</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B3" s="4">
-        <v>98125</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>63</v>
+      </c>
+      <c r="B11" s="11">
+        <v>98011</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>68</v>
+      </c>
+      <c r="B12" s="9">
+        <v>98014</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>15</v>
+      </c>
+      <c r="B13" s="11">
+        <v>98019</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>59</v>
+      </c>
+      <c r="B14" s="11">
+        <v>98022</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>31</v>
+      </c>
+      <c r="B15" s="11">
+        <v>98023</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>62</v>
+      </c>
+      <c r="B16" s="9">
+        <v>98024</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>25</v>
+      </c>
+      <c r="B17" s="11">
+        <v>98027</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B18" s="11">
         <v>98028</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>98136</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>98074</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>56</v>
+      </c>
+      <c r="B19" s="9">
+        <v>98029</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>21</v>
+      </c>
+      <c r="B20" s="11">
+        <v>98030</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>64</v>
+      </c>
+      <c r="B21" s="9">
+        <v>98031</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>48</v>
+      </c>
+      <c r="B22" s="9">
+        <v>98032</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>60</v>
+      </c>
+      <c r="B23" s="9">
+        <v>98033</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>42</v>
+      </c>
+      <c r="B24" s="9">
+        <v>98034</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>10</v>
+      </c>
+      <c r="B25" s="9">
+        <v>98038</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>70</v>
+      </c>
+      <c r="B26" s="9">
+        <v>98039</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>19</v>
+      </c>
+      <c r="B27" s="11">
+        <v>98040</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>35</v>
+      </c>
+      <c r="B28" s="11">
+        <v>98042</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>49</v>
+      </c>
+      <c r="B29" s="11">
+        <v>98045</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>24</v>
+      </c>
+      <c r="B30" s="9">
+        <v>98052</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B31" s="9">
         <v>98053</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C31" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>98003</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4">
-        <v>98198</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>98146</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4">
-        <v>98038</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>98007</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4">
-        <v>98115</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>98107</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4">
-        <v>98126</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>98019</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4">
-        <v>98103</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
-        <v>98002</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4">
-        <v>98133</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
-        <v>98040</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4">
-        <v>98092</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2">
-        <v>98030</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+      <c r="D31" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>69</v>
+      </c>
+      <c r="B32" s="11">
+        <v>98055</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="B23" s="4">
-        <v>98119</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2">
-        <v>98112</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4">
-        <v>98052</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2">
-        <v>98027</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" s="4">
-        <v>98117</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2">
-        <v>98058</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="4">
-        <v>98001</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2">
-        <v>98056</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="4">
-        <v>98166</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2">
-        <v>98023</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>4</v>
@@ -973,27 +1237,27 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
-        <v>32</v>
-      </c>
-      <c r="B33" s="4">
-        <v>98070</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="B33" s="11">
+        <v>98056</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2">
-        <v>98148</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="B34" s="12">
+        <v>98058</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>4</v>
@@ -1001,41 +1265,41 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="4">
-        <v>98105</v>
+        <v>37</v>
+      </c>
+      <c r="B35" s="2">
+        <v>98059</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="3">
-        <v>35</v>
+      <c r="A36" s="1">
+        <v>55</v>
       </c>
       <c r="B36" s="2">
-        <v>98042</v>
+        <v>98065</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>36</v>
+      <c r="A37" s="3">
+        <v>32</v>
       </c>
       <c r="B37" s="4">
-        <v>98008</v>
+        <v>98070</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>4</v>
@@ -1043,13 +1307,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="2">
-        <v>98059</v>
+        <v>66</v>
+      </c>
+      <c r="B38" s="4">
+        <v>98072</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>4</v>
@@ -1057,13 +1321,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
-        <v>38</v>
-      </c>
-      <c r="B39" s="4">
-        <v>98122</v>
+        <v>5</v>
+      </c>
+      <c r="B39" s="2">
+        <v>98074</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>4</v>
@@ -1071,13 +1335,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2">
-        <v>98144</v>
+        <v>98075</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>4</v>
@@ -1085,13 +1349,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="4">
-        <v>98004</v>
+        <v>51</v>
+      </c>
+      <c r="B41" s="2">
+        <v>98077</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>4</v>
@@ -1099,27 +1363,27 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2">
-        <v>98005</v>
+        <v>20</v>
+      </c>
+      <c r="B42" s="4">
+        <v>98092</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" s="4">
-        <v>98034</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>16</v>
+      <c r="A43" s="3">
+        <v>50</v>
+      </c>
+      <c r="B43" s="6">
+        <v>98102</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>4</v>
@@ -1127,26 +1391,26 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44" s="2">
-        <v>98075</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="B44" s="6">
+        <v>98103</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="3">
-        <v>44</v>
-      </c>
-      <c r="B45" s="4">
-        <v>98116</v>
-      </c>
-      <c r="C45" s="2" t="s">
+      <c r="A45" s="1">
+        <v>34</v>
+      </c>
+      <c r="B45" s="6">
+        <v>98105</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -1154,14 +1418,14 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46" s="2">
-        <v>98010</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>7</v>
+      <c r="A46" s="3">
+        <v>65</v>
+      </c>
+      <c r="B46" s="5">
+        <v>98106</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>4</v>
@@ -1169,12 +1433,12 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="B47" s="4">
-        <v>98118</v>
-      </c>
-      <c r="C47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="5">
+        <v>98107</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -1182,13 +1446,13 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="3">
-        <v>47</v>
-      </c>
-      <c r="B48" s="2">
-        <v>98199</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="A48" s="1">
+        <v>52</v>
+      </c>
+      <c r="B48" s="6">
+        <v>98108</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -1197,40 +1461,40 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49" s="4">
-        <v>98032</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>15</v>
+        <v>58</v>
+      </c>
+      <c r="B49" s="6">
+        <v>98109</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
-      <c r="B50" s="2">
-        <v>98045</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>20</v>
+      <c r="A50" s="3">
+        <v>23</v>
+      </c>
+      <c r="B50" s="5">
+        <v>98112</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="3">
-        <v>50</v>
-      </c>
-      <c r="B51" s="4">
-        <v>98102</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="A51" s="1">
+        <v>12</v>
+      </c>
+      <c r="B51" s="6">
+        <v>98115</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -1238,27 +1502,27 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
-        <v>51</v>
-      </c>
-      <c r="B52" s="2">
-        <v>98077</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>25</v>
+      <c r="A52" s="3">
+        <v>44</v>
+      </c>
+      <c r="B52" s="6">
+        <v>98116</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
-        <v>52</v>
-      </c>
-      <c r="B53" s="4">
-        <v>98108</v>
-      </c>
-      <c r="C53" s="2" t="s">
+      <c r="A53" s="3">
+        <v>26</v>
+      </c>
+      <c r="B53" s="6">
+        <v>98117</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -1266,13 +1530,13 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="3">
-        <v>53</v>
-      </c>
-      <c r="B54" s="2">
-        <v>98168</v>
-      </c>
-      <c r="C54" s="2" t="s">
+      <c r="A54" s="1">
+        <v>46</v>
+      </c>
+      <c r="B54" s="6">
+        <v>98118</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -1281,12 +1545,12 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>54</v>
-      </c>
-      <c r="B55" s="4">
-        <v>98177</v>
-      </c>
-      <c r="C55" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="6">
+        <v>98119</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -1294,14 +1558,14 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
-        <v>55</v>
-      </c>
-      <c r="B56" s="2">
-        <v>98065</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>23</v>
+      <c r="A56" s="3">
+        <v>38</v>
+      </c>
+      <c r="B56" s="6">
+        <v>98122</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>4</v>
@@ -1309,27 +1573,27 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
-        <v>56</v>
-      </c>
-      <c r="B57" s="4">
-        <v>98029</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="B57" s="6">
+        <v>98125</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
-        <v>57</v>
-      </c>
-      <c r="B58" s="2">
-        <v>98006</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>6</v>
+      <c r="A58" s="3">
+        <v>14</v>
+      </c>
+      <c r="B58" s="6">
+        <v>98126</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>4</v>
@@ -1337,12 +1601,12 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>58</v>
-      </c>
-      <c r="B59" s="4">
-        <v>98109</v>
-      </c>
-      <c r="C59" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="6">
+        <v>98133</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -1350,14 +1614,14 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="3">
-        <v>59</v>
-      </c>
-      <c r="B60" s="2">
-        <v>98022</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>11</v>
+      <c r="A60" s="1">
+        <v>4</v>
+      </c>
+      <c r="B60" s="6">
+        <v>98136</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>4</v>
@@ -1365,13 +1629,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>60</v>
-      </c>
-      <c r="B61" s="4">
-        <v>98033</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
+      </c>
+      <c r="B61" s="5">
+        <v>98144</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>4</v>
@@ -1379,12 +1643,12 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>61</v>
-      </c>
-      <c r="B62" s="2">
-        <v>98155</v>
-      </c>
-      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="5">
+        <v>98146</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -1392,14 +1656,14 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="3">
-        <v>62</v>
-      </c>
-      <c r="B63" s="4">
-        <v>98024</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>12</v>
+      <c r="A63" s="1">
+        <v>33</v>
+      </c>
+      <c r="B63" s="5">
+        <v>98148</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>4</v>
@@ -1407,13 +1671,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>63</v>
-      </c>
-      <c r="B64" s="2">
-        <v>98011</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>61</v>
+      </c>
+      <c r="B64" s="5">
+        <v>98155</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>4</v>
@@ -1421,13 +1685,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>64</v>
-      </c>
-      <c r="B65" s="4">
-        <v>98031</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="B65" s="6">
+        <v>98166</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>4</v>
@@ -1435,12 +1699,12 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
-        <v>65</v>
-      </c>
-      <c r="B66" s="2">
-        <v>98106</v>
-      </c>
-      <c r="C66" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" s="5">
+        <v>98168</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D66" s="2" t="s">
@@ -1449,13 +1713,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>66</v>
-      </c>
-      <c r="B67" s="4">
-        <v>98072</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>25</v>
+        <v>54</v>
+      </c>
+      <c r="B67" s="6">
+        <v>98177</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>4</v>
@@ -1463,61 +1727,66 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
+        <v>1</v>
+      </c>
+      <c r="B68" s="5">
+        <v>98178</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B69" s="5">
         <v>98188</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="3">
-        <v>68</v>
-      </c>
-      <c r="B69" s="4">
-        <v>98014</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
+      <c r="C69" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
-        <v>69</v>
-      </c>
-      <c r="B70" s="2">
-        <v>98055</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>22</v>
+      <c r="A70" s="3">
+        <v>8</v>
+      </c>
+      <c r="B70" s="6">
+        <v>98198</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
-        <v>70</v>
-      </c>
-      <c r="B71" s="4">
-        <v>98039</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>18</v>
+      <c r="A71" s="3">
+        <v>47</v>
+      </c>
+      <c r="B71" s="5">
+        <v>98199</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D71" xr:uid="{B6B15501-F8E4-4561-A089-E21E532FD56A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D71">
+      <sortCondition ref="B1:B71"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/zip.xlsx
+++ b/zip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/96cba6bbde57eda7/Documents/GitHub/MidTermProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{854DCA86-B191-41CF-A686-8AFE63B0A9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BF6B7FD-788D-4FBE-BF61-518F6209BCAF}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="8_{854DCA86-B191-41CF-A686-8AFE63B0A9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC135BAE-E3F7-4996-9F5B-8748A4F54C5C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F99AE724-4C1D-49FD-A19C-5A7C0B3FAB51}"/>
   </bookViews>
@@ -186,26 +186,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,928 +518,1011 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B15501-F8E4-4561-A089-E21E532FD56A}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="4"/>
+    <col min="2" max="2" width="13.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
+      <c r="A2" s="1">
         <v>98199</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>98198</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
+      <c r="A4" s="1">
         <v>98188</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+      <c r="A5" s="1">
         <v>98178</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>98177</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+      <c r="A7" s="1">
         <v>98168</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>98166</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+      <c r="A9" s="1">
         <v>98155</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+      <c r="A10" s="1">
         <v>98148</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+      <c r="A11" s="1">
         <v>98146</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
+      <c r="A12" s="1">
         <v>98144</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>98136</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>98133</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>98126</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>98125</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>98122</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>98119</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>98118</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>98117</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="B20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>98116</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="5">
+      <c r="A22" s="3">
         <v>98115</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="4">
+      <c r="A23" s="1">
         <v>98112</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="5">
+      <c r="A24" s="3">
         <v>98109</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="B24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="5">
+      <c r="A25" s="3">
         <v>98108</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="4">
+      <c r="A26" s="1">
         <v>98107</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="B26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="4">
+      <c r="A27" s="1">
         <v>98106</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="5">
+      <c r="A28" s="3">
         <v>98105</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="B28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="5">
+      <c r="A29" s="3">
         <v>98103</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="B29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="5">
+      <c r="A30" s="3">
         <v>98102</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="2">
+      <c r="B30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="5">
+      <c r="A31" s="3">
         <v>98092</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="2"/>
+      <c r="C31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="4">
+      <c r="A32" s="1">
         <v>98077</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="2"/>
+      <c r="C32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="4">
+      <c r="A33" s="1">
         <v>98075</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="2"/>
+      <c r="C33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="4">
+      <c r="A34" s="1">
         <v>98074</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="2"/>
+      <c r="C34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>98072</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="2"/>
+      <c r="C35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>98070</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="2"/>
+      <c r="C36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>98065</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="2"/>
+      <c r="C37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>98059</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="2"/>
+      <c r="C38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="4">
+      <c r="A39" s="1">
         <v>98058</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="2"/>
+      <c r="C39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="4">
+      <c r="A40" s="1">
         <v>98056</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="2"/>
+      <c r="C40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="4">
+      <c r="A41" s="1">
         <v>98055</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="2"/>
+      <c r="C41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="5">
+      <c r="A42" s="3">
         <v>98053</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="2"/>
+      <c r="C42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="5">
+      <c r="A43" s="3">
         <v>98052</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="2"/>
+      <c r="C43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="4">
+      <c r="A44" s="1">
         <v>98045</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="2"/>
+      <c r="C44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="4">
+      <c r="A45" s="1">
         <v>98042</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="2"/>
+      <c r="C45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="4">
+      <c r="A46" s="1">
         <v>98040</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="2"/>
+      <c r="C46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="5">
+      <c r="A47" s="3">
         <v>98039</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="2"/>
+      <c r="C47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="5">
+      <c r="A48" s="3">
         <v>98038</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="2"/>
+      <c r="C48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="5">
+      <c r="A49" s="3">
         <v>98034</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" s="2"/>
+      <c r="C49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="5">
+      <c r="A50" s="3">
         <v>98033</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="2"/>
+      <c r="C50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="5">
+      <c r="A51" s="3">
         <v>98032</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="2"/>
+      <c r="C51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="5">
+      <c r="A52" s="3">
         <v>98031</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="2"/>
+      <c r="C52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="4">
+      <c r="A53" s="1">
         <v>98030</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="2"/>
+      <c r="C53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="5">
+      <c r="A54" s="3">
         <v>98029</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="2"/>
+      <c r="C54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="4">
+      <c r="A55" s="1">
         <v>98028</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="2"/>
+      <c r="C55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="4">
+      <c r="A56" s="1">
         <v>98027</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" s="2"/>
+      <c r="C56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="5">
+      <c r="A57" s="3">
         <v>98024</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" s="2"/>
+      <c r="C57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="4">
+      <c r="A58" s="1">
         <v>98023</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D58" s="2"/>
+      <c r="C58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="4">
+      <c r="A59" s="1">
         <v>98022</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="2"/>
+      <c r="B59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="4">
+      <c r="A60" s="1">
         <v>98019</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" s="2"/>
+      <c r="C60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="5">
+      <c r="A61" s="3">
         <v>98014</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="2"/>
+      <c r="C61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="4">
+      <c r="A62" s="1">
         <v>98011</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" s="2"/>
+      <c r="C62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="4">
+      <c r="A63" s="1">
         <v>98010</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D63" s="2"/>
+      <c r="C63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="5">
+      <c r="A64" s="3">
         <v>98008</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64" s="2"/>
+      <c r="C64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="4">
+      <c r="A65" s="1">
         <v>98007</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" s="2"/>
+      <c r="C65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="4">
+      <c r="A66" s="1">
         <v>98006</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D66" s="2"/>
+      <c r="C66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="4">
+      <c r="A67" s="1">
         <v>98005</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D67" s="2"/>
+      <c r="C67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>98004</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D68" s="2"/>
+      <c r="C68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="2">
+      <c r="A69" s="1">
         <v>98003</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="2"/>
+      <c r="C69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="2">
+      <c r="A70" s="1">
         <v>98002</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D70" s="2"/>
+      <c r="C70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>98001</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" s="2"/>
+      <c r="C71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="1">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C71" xr:uid="{B6B15501-F8E4-4561-A089-E21E532FD56A}">

--- a/zip.xlsx
+++ b/zip.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/96cba6bbde57eda7/Documents/GitHub/MidTermProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6887cf1a238b6b41/Dokumente/GitHub/MidTermProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="8_{854DCA86-B191-41CF-A686-8AFE63B0A9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC135BAE-E3F7-4996-9F5B-8748A4F54C5C}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="8_{854DCA86-B191-41CF-A686-8AFE63B0A9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D670B923-FC8B-4117-8DE1-33F40DF6AB87}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F99AE724-4C1D-49FD-A19C-5A7C0B3FAB51}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F99AE724-4C1D-49FD-A19C-5A7C0B3FAB51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$71</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -213,10 +212,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -518,19 +513,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B15501-F8E4-4561-A089-E21E532FD56A}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="4"/>
-    <col min="2" max="2" width="13.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="4"/>
+    <col min="2" max="2" width="13.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -544,7 +539,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>98199</v>
       </c>
@@ -555,10 +550,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>98198</v>
       </c>
@@ -572,7 +567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>98188</v>
       </c>
@@ -583,10 +578,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>98178</v>
       </c>
@@ -597,10 +592,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>98177</v>
       </c>
@@ -611,10 +606,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>98168</v>
       </c>
@@ -625,10 +620,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>98166</v>
       </c>
@@ -642,7 +637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>98155</v>
       </c>
@@ -653,10 +648,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>98148</v>
       </c>
@@ -670,7 +665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>98146</v>
       </c>
@@ -684,7 +679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>98144</v>
       </c>
@@ -695,10 +690,10 @@
         <v>3</v>
       </c>
       <c r="D12" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>98136</v>
       </c>
@@ -712,7 +707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>98133</v>
       </c>
@@ -723,10 +718,10 @@
         <v>3</v>
       </c>
       <c r="D14" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>98126</v>
       </c>
@@ -740,7 +735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>98125</v>
       </c>
@@ -751,10 +746,10 @@
         <v>3</v>
       </c>
       <c r="D16" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>98122</v>
       </c>
@@ -765,10 +760,10 @@
         <v>3</v>
       </c>
       <c r="D17" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>98119</v>
       </c>
@@ -779,10 +774,10 @@
         <v>3</v>
       </c>
       <c r="D18" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>98118</v>
       </c>
@@ -793,10 +788,10 @@
         <v>3</v>
       </c>
       <c r="D19" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>98117</v>
       </c>
@@ -807,10 +802,10 @@
         <v>3</v>
       </c>
       <c r="D20" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>98116</v>
       </c>
@@ -824,7 +819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>98115</v>
       </c>
@@ -835,10 +830,10 @@
         <v>3</v>
       </c>
       <c r="D22" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>98112</v>
       </c>
@@ -849,10 +844,10 @@
         <v>3</v>
       </c>
       <c r="D23" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>98109</v>
       </c>
@@ -863,10 +858,10 @@
         <v>3</v>
       </c>
       <c r="D24" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>98108</v>
       </c>
@@ -877,10 +872,10 @@
         <v>3</v>
       </c>
       <c r="D25" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>98107</v>
       </c>
@@ -891,10 +886,10 @@
         <v>3</v>
       </c>
       <c r="D26" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>98106</v>
       </c>
@@ -908,7 +903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>98105</v>
       </c>
@@ -919,10 +914,10 @@
         <v>3</v>
       </c>
       <c r="D28" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>98103</v>
       </c>
@@ -933,10 +928,10 @@
         <v>3</v>
       </c>
       <c r="D29" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>98102</v>
       </c>
@@ -947,10 +942,10 @@
         <v>3</v>
       </c>
       <c r="D30" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>98092</v>
       </c>
@@ -964,7 +959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>98077</v>
       </c>
@@ -978,7 +973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>98075</v>
       </c>
@@ -992,7 +987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>98074</v>
       </c>
@@ -1006,7 +1001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>98072</v>
       </c>
@@ -1020,7 +1015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>98070</v>
       </c>
@@ -1034,7 +1029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>98065</v>
       </c>
@@ -1048,7 +1043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>98059</v>
       </c>
@@ -1062,7 +1057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>98058</v>
       </c>
@@ -1076,7 +1071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>98056</v>
       </c>
@@ -1090,7 +1085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>98055</v>
       </c>
@@ -1104,7 +1099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>98053</v>
       </c>
@@ -1118,7 +1113,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>98052</v>
       </c>
@@ -1132,7 +1127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>98045</v>
       </c>
@@ -1146,7 +1141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>98042</v>
       </c>
@@ -1160,7 +1155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>98040</v>
       </c>
@@ -1174,7 +1169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>98039</v>
       </c>
@@ -1188,7 +1183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>98038</v>
       </c>
@@ -1202,7 +1197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>98034</v>
       </c>
@@ -1216,7 +1211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>98033</v>
       </c>
@@ -1230,7 +1225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>98032</v>
       </c>
@@ -1244,7 +1239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>98031</v>
       </c>
@@ -1258,7 +1253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>98030</v>
       </c>
@@ -1272,7 +1267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>98029</v>
       </c>
@@ -1286,7 +1281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>98028</v>
       </c>
@@ -1300,7 +1295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>98027</v>
       </c>
@@ -1314,7 +1309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>98024</v>
       </c>
@@ -1328,7 +1323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>98023</v>
       </c>
@@ -1342,7 +1337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>98022</v>
       </c>
@@ -1356,7 +1351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>98019</v>
       </c>
@@ -1370,7 +1365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>98014</v>
       </c>
@@ -1384,7 +1379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>98011</v>
       </c>
@@ -1398,7 +1393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>98010</v>
       </c>
@@ -1412,7 +1407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>98008</v>
       </c>
@@ -1426,7 +1421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>98007</v>
       </c>
@@ -1440,7 +1435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>98006</v>
       </c>
@@ -1454,7 +1449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>98005</v>
       </c>
@@ -1468,7 +1463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>98004</v>
       </c>
@@ -1482,7 +1477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>98003</v>
       </c>
@@ -1496,7 +1491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>98002</v>
       </c>
@@ -1510,7 +1505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>98001</v>
       </c>
@@ -1525,11 +1520,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C71" xr:uid="{B6B15501-F8E4-4561-A089-E21E532FD56A}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C71">
-      <sortCondition descending="1" ref="A1:A71"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:D71" xr:uid="{B6B15501-F8E4-4561-A089-E21E532FD56A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/zip.xlsx
+++ b/zip.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6887cf1a238b6b41/Dokumente/GitHub/MidTermProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/96cba6bbde57eda7/Documents/GitHub/MidTermProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="8_{854DCA86-B191-41CF-A686-8AFE63B0A9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D670B923-FC8B-4117-8DE1-33F40DF6AB87}"/>
+  <xr:revisionPtr revIDLastSave="198" documentId="8_{854DCA86-B191-41CF-A686-8AFE63B0A9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EA0F1CD-C52D-47FF-A09A-F809B5620D79}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F99AE724-4C1D-49FD-A19C-5A7C0B3FAB51}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F99AE724-4C1D-49FD-A19C-5A7C0B3FAB51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="34">
   <si>
     <t>City</t>
   </si>
@@ -125,6 +125,21 @@
   </si>
   <si>
     <t>zipcode</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -185,18 +200,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -212,6 +226,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -514,18 +532,18 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="4"/>
-    <col min="2" max="2" width="13.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -539,7 +557,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>98199</v>
       </c>
@@ -549,11 +567,11 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>98198</v>
       </c>
@@ -563,11 +581,11 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>98188</v>
       </c>
@@ -577,11 +595,11 @@
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>98178</v>
       </c>
@@ -591,11 +609,11 @@
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>98177</v>
       </c>
@@ -605,11 +623,11 @@
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>98168</v>
       </c>
@@ -619,11 +637,11 @@
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>98166</v>
       </c>
@@ -633,11 +651,11 @@
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>98155</v>
       </c>
@@ -647,11 +665,11 @@
       <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>98148</v>
       </c>
@@ -661,11 +679,11 @@
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>98146</v>
       </c>
@@ -675,11 +693,11 @@
       <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>98144</v>
       </c>
@@ -689,11 +707,11 @@
       <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>98136</v>
       </c>
@@ -703,11 +721,11 @@
       <c r="C13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>98133</v>
       </c>
@@ -717,11 +735,11 @@
       <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>98126</v>
       </c>
@@ -731,11 +749,11 @@
       <c r="C15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>98125</v>
       </c>
@@ -745,11 +763,11 @@
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>98122</v>
       </c>
@@ -759,11 +777,11 @@
       <c r="C17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>98119</v>
       </c>
@@ -773,11 +791,11 @@
       <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>98118</v>
       </c>
@@ -787,11 +805,11 @@
       <c r="C19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>98117</v>
       </c>
@@ -801,11 +819,11 @@
       <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>98116</v>
       </c>
@@ -815,11 +833,11 @@
       <c r="C21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>98115</v>
       </c>
@@ -829,11 +847,11 @@
       <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>98112</v>
       </c>
@@ -843,11 +861,11 @@
       <c r="C23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D23" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>98109</v>
       </c>
@@ -857,11 +875,11 @@
       <c r="C24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D24" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>98108</v>
       </c>
@@ -871,11 +889,11 @@
       <c r="C25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D25" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>98107</v>
       </c>
@@ -885,11 +903,11 @@
       <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D26" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>98106</v>
       </c>
@@ -899,11 +917,11 @@
       <c r="C27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D27" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>98105</v>
       </c>
@@ -913,11 +931,11 @@
       <c r="C28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D28" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>98103</v>
       </c>
@@ -927,11 +945,11 @@
       <c r="C29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>98102</v>
       </c>
@@ -941,11 +959,11 @@
       <c r="C30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>98092</v>
       </c>
@@ -955,11 +973,11 @@
       <c r="C31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D31" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>98077</v>
       </c>
@@ -969,11 +987,11 @@
       <c r="C32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D32" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>98075</v>
       </c>
@@ -983,11 +1001,11 @@
       <c r="C33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>98074</v>
       </c>
@@ -997,11 +1015,11 @@
       <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>98072</v>
       </c>
@@ -1011,11 +1029,11 @@
       <c r="C35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D35" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>98070</v>
       </c>
@@ -1025,11 +1043,11 @@
       <c r="C36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>98065</v>
       </c>
@@ -1039,11 +1057,11 @@
       <c r="C37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D37" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>98059</v>
       </c>
@@ -1053,11 +1071,11 @@
       <c r="C38" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D38" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>98058</v>
       </c>
@@ -1067,11 +1085,11 @@
       <c r="C39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D39" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>98056</v>
       </c>
@@ -1081,11 +1099,11 @@
       <c r="C40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D40" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>98055</v>
       </c>
@@ -1095,11 +1113,11 @@
       <c r="C41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D41" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>98053</v>
       </c>
@@ -1109,11 +1127,11 @@
       <c r="C42" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D42" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>98052</v>
       </c>
@@ -1123,11 +1141,11 @@
       <c r="C43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D43" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>98045</v>
       </c>
@@ -1137,11 +1155,11 @@
       <c r="C44" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D44" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D44" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>98042</v>
       </c>
@@ -1151,11 +1169,11 @@
       <c r="C45" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D45" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>98040</v>
       </c>
@@ -1165,11 +1183,11 @@
       <c r="C46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D46" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D46" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>98039</v>
       </c>
@@ -1179,11 +1197,11 @@
       <c r="C47" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D47" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>98038</v>
       </c>
@@ -1193,11 +1211,11 @@
       <c r="C48" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D48" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D48" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>98034</v>
       </c>
@@ -1207,11 +1225,11 @@
       <c r="C49" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D49" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>98033</v>
       </c>
@@ -1221,11 +1239,11 @@
       <c r="C50" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D50" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D50" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>98032</v>
       </c>
@@ -1235,11 +1253,11 @@
       <c r="C51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D51" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D51" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>98031</v>
       </c>
@@ -1249,11 +1267,11 @@
       <c r="C52" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D52" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>98030</v>
       </c>
@@ -1263,11 +1281,11 @@
       <c r="C53" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D53" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D53" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>98029</v>
       </c>
@@ -1277,11 +1295,11 @@
       <c r="C54" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D54" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D54" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>98028</v>
       </c>
@@ -1291,11 +1309,11 @@
       <c r="C55" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D55" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D55" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>98027</v>
       </c>
@@ -1305,11 +1323,11 @@
       <c r="C56" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D56" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D56" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>98024</v>
       </c>
@@ -1319,11 +1337,11 @@
       <c r="C57" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D57" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D57" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>98023</v>
       </c>
@@ -1333,11 +1351,11 @@
       <c r="C58" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D58" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D58" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>98022</v>
       </c>
@@ -1347,11 +1365,11 @@
       <c r="C59" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D59" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D59" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>98019</v>
       </c>
@@ -1361,11 +1379,11 @@
       <c r="C60" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D60" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D60" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>98014</v>
       </c>
@@ -1375,11 +1393,11 @@
       <c r="C61" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D61" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D61" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>98011</v>
       </c>
@@ -1389,11 +1407,11 @@
       <c r="C62" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D62" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D62" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>98010</v>
       </c>
@@ -1403,11 +1421,11 @@
       <c r="C63" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D63" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D63" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>98008</v>
       </c>
@@ -1417,11 +1435,11 @@
       <c r="C64" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D64" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D64" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>98007</v>
       </c>
@@ -1431,11 +1449,11 @@
       <c r="C65" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D65" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D65" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>98006</v>
       </c>
@@ -1445,11 +1463,11 @@
       <c r="C66" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D66" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>98005</v>
       </c>
@@ -1459,11 +1477,11 @@
       <c r="C67" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D67" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D67" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>98004</v>
       </c>
@@ -1473,11 +1491,11 @@
       <c r="C68" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D68" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D68" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>98003</v>
       </c>
@@ -1487,11 +1505,11 @@
       <c r="C69" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D69" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D69" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>98002</v>
       </c>
@@ -1501,11 +1519,11 @@
       <c r="C70" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D70" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D70" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>98001</v>
       </c>
@@ -1515,8 +1533,8 @@
       <c r="C71" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D71" s="1">
-        <v>10</v>
+      <c r="D71" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/zip.xlsx
+++ b/zip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/96cba6bbde57eda7/Documents/GitHub/MidTermProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="198" documentId="8_{854DCA86-B191-41CF-A686-8AFE63B0A9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EA0F1CD-C52D-47FF-A09A-F809B5620D79}"/>
+  <xr:revisionPtr revIDLastSave="279" documentId="8_{854DCA86-B191-41CF-A686-8AFE63B0A9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7281D3AB-3DD8-401E-928F-6BF15086E50F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F99AE724-4C1D-49FD-A19C-5A7C0B3FAB51}"/>
   </bookViews>
@@ -226,6 +226,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6445</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171705</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DD9C9BF-C486-B526-97E1-F7BD8A42253C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619500" y="0"/>
+          <a:ext cx="1847945" cy="4959605"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114542</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38330</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43FDA93E-439C-4146-D8C0-2B96FAA45F15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5746750" y="1085850"/>
+          <a:ext cx="4705592" cy="4476980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -532,7 +625,7 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D46" sqref="D46:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -568,7 +661,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -582,7 +675,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -596,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -610,7 +703,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -638,7 +731,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -652,7 +745,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -666,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -680,7 +773,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -694,7 +787,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -708,7 +801,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -722,7 +815,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -736,7 +829,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -750,7 +843,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -778,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -792,7 +885,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -806,7 +899,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -834,7 +927,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -862,7 +955,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -876,7 +969,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -890,7 +983,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -918,7 +1011,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -932,7 +1025,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -960,7 +1053,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -1184,7 +1277,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -1198,7 +1291,7 @@
         <v>3</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -1436,7 +1529,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -1450,7 +1543,7 @@
         <v>3</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -1463,8 +1556,8 @@
       <c r="C66" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D66" t="s">
-        <v>32</v>
+      <c r="D66" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -1478,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -1492,7 +1585,7 @@
         <v>3</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -1541,5 +1634,6 @@
   <autoFilter ref="A1:D71" xr:uid="{B6B15501-F8E4-4561-A089-E21E532FD56A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>